--- a/DepozitiKBSK.xlsx
+++ b/DepozitiKBSK.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="23">
   <si>
     <t>Банка</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Валута</t>
   </si>
   <si>
-    <t>MKD</t>
-  </si>
-  <si>
     <t>Рок (во месеци)</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
   </si>
   <si>
     <t>Најмал износ</t>
-  </si>
-  <si>
-    <t>по видување</t>
   </si>
   <si>
     <t>https://www.kb.mk/denarsko-oroceno.nspx</t>
@@ -554,7 +548,7 @@
   <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+      <selection activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,10 +574,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>3</v>
@@ -592,42 +586,42 @@
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="9" t="s">
-        <v>10</v>
+      <c r="E2" s="9">
+        <v>0</v>
       </c>
       <c r="F2" s="15">
         <v>3</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="10">
         <v>1000</v>
@@ -639,21 +633,21 @@
         <v>3</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="10">
         <v>1000001</v>
@@ -665,21 +659,21 @@
         <v>3</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="10">
         <v>2500001</v>
@@ -691,21 +685,21 @@
         <v>3</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="10">
         <v>3100001</v>
@@ -717,21 +711,21 @@
         <v>3</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="10">
         <v>3700001</v>
@@ -743,21 +737,21 @@
         <v>3</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="10">
         <v>4300001</v>
@@ -769,21 +763,21 @@
         <v>3</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="10">
         <v>5000001</v>
@@ -795,21 +789,21 @@
         <v>3</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="10">
         <v>6000001</v>
@@ -821,21 +815,21 @@
         <v>3</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="10">
         <v>7000001</v>
@@ -847,21 +841,21 @@
         <v>3</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="10">
         <v>8000001</v>
@@ -873,21 +867,21 @@
         <v>3</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D13" s="10">
         <v>9000001</v>
@@ -899,21 +893,21 @@
         <v>3</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="10">
         <v>20000001</v>
@@ -925,21 +919,21 @@
         <v>3</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="10">
         <v>40000001</v>
@@ -951,21 +945,21 @@
         <v>3</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="10">
         <v>60000001</v>
@@ -977,21 +971,21 @@
         <v>3</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="10">
         <v>1000</v>
@@ -1003,21 +997,21 @@
         <v>3</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="10">
         <v>100000</v>
@@ -1029,21 +1023,21 @@
         <v>3</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="10">
         <v>1000001</v>
@@ -1055,21 +1049,21 @@
         <v>3</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="10">
         <v>2500001</v>
@@ -1081,21 +1075,21 @@
         <v>3</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="10">
         <v>3100001</v>
@@ -1107,21 +1101,21 @@
         <v>3</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22" s="10">
         <v>3700001</v>
@@ -1133,21 +1127,21 @@
         <v>3</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="10">
         <v>4300001</v>
@@ -1159,21 +1153,21 @@
         <v>3</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="10">
         <v>5000001</v>
@@ -1185,21 +1179,21 @@
         <v>3</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="10">
         <v>6000001</v>
@@ -1211,21 +1205,21 @@
         <v>3</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="10">
         <v>7000001</v>
@@ -1237,21 +1231,21 @@
         <v>3</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" s="10">
         <v>8000001</v>
@@ -1263,21 +1257,21 @@
         <v>3</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28" s="10">
         <v>9000001</v>
@@ -1289,21 +1283,21 @@
         <v>3</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" s="10">
         <v>20000001</v>
@@ -1315,21 +1309,21 @@
         <v>3</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" s="10">
         <v>40000001</v>
@@ -1341,21 +1335,21 @@
         <v>3</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" s="10">
         <v>60000001</v>
@@ -1367,21 +1361,21 @@
         <v>3</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32" s="10">
         <v>1000</v>
@@ -1393,21 +1387,21 @@
         <v>3</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D33" s="10">
         <v>100000</v>
@@ -1419,21 +1413,21 @@
         <v>3</v>
       </c>
       <c r="G33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34" s="10">
         <v>1000001</v>
@@ -1445,21 +1439,21 @@
         <v>3</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35" s="10">
         <v>2500001</v>
@@ -1471,21 +1465,21 @@
         <v>3</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36" s="10">
         <v>3100001</v>
@@ -1497,21 +1491,21 @@
         <v>3</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" s="10">
         <v>3700001</v>
@@ -1523,21 +1517,21 @@
         <v>3</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38" s="10">
         <v>4300001</v>
@@ -1549,21 +1543,21 @@
         <v>3</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39" s="10">
         <v>5000001</v>
@@ -1575,21 +1569,21 @@
         <v>3</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D40" s="10">
         <v>6000001</v>
@@ -1601,21 +1595,21 @@
         <v>3</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D41" s="10">
         <v>7000001</v>
@@ -1627,21 +1621,21 @@
         <v>3</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42" s="10">
         <v>8000001</v>
@@ -1653,21 +1647,21 @@
         <v>3</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43" s="10">
         <v>9000001</v>
@@ -1679,21 +1673,21 @@
         <v>3</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D44" s="10">
         <v>20000001</v>
@@ -1705,21 +1699,21 @@
         <v>3</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D45" s="10">
         <v>40000001</v>
@@ -1731,21 +1725,21 @@
         <v>3</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D46" s="10">
         <v>60000001</v>
@@ -1757,21 +1751,21 @@
         <v>3</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D47" s="10">
         <v>1000</v>
@@ -1783,21 +1777,21 @@
         <v>3</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D48" s="10">
         <v>100000</v>
@@ -1809,21 +1803,21 @@
         <v>3</v>
       </c>
       <c r="G48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D49" s="10">
         <v>1000001</v>
@@ -1835,21 +1829,21 @@
         <v>3</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D50" s="10">
         <v>2500001</v>
@@ -1861,21 +1855,21 @@
         <v>3</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D51" s="10">
         <v>3100001</v>
@@ -1887,21 +1881,21 @@
         <v>3</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D52" s="10">
         <v>3700001</v>
@@ -1913,21 +1907,21 @@
         <v>3</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D53" s="10">
         <v>4300001</v>
@@ -1939,21 +1933,21 @@
         <v>3</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D54" s="10">
         <v>5000001</v>
@@ -1965,21 +1959,21 @@
         <v>3</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D55" s="10">
         <v>6000001</v>
@@ -1991,21 +1985,21 @@
         <v>3</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D56" s="10">
         <v>7000001</v>
@@ -2017,21 +2011,21 @@
         <v>3</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D57" s="10">
         <v>8000001</v>
@@ -2043,21 +2037,21 @@
         <v>3</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D58" s="10">
         <v>9000001</v>
@@ -2069,21 +2063,21 @@
         <v>3</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D59" s="10">
         <v>20000001</v>
@@ -2095,21 +2089,21 @@
         <v>3</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D60" s="10">
         <v>40000001</v>
@@ -2121,21 +2115,21 @@
         <v>3</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D61" s="10">
         <v>60000001</v>
@@ -2147,21 +2141,21 @@
         <v>3</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D62" s="10">
         <v>1000</v>
@@ -2173,21 +2167,21 @@
         <v>3</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D63" s="10">
         <v>100000</v>
@@ -2199,21 +2193,21 @@
         <v>3</v>
       </c>
       <c r="G63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D64" s="10">
         <v>1000001</v>
@@ -2225,21 +2219,21 @@
         <v>3</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D65" s="10">
         <v>2500001</v>
@@ -2251,21 +2245,21 @@
         <v>3</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D66" s="10">
         <v>3100001</v>
@@ -2277,21 +2271,21 @@
         <v>3</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D67" s="10">
         <v>3700001</v>
@@ -2303,21 +2297,21 @@
         <v>3</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D68" s="10">
         <v>4300001</v>
@@ -2329,21 +2323,21 @@
         <v>3</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D69" s="10">
         <v>5000001</v>
@@ -2355,21 +2349,21 @@
         <v>3</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D70" s="10">
         <v>6000001</v>
@@ -2381,21 +2375,21 @@
         <v>3</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D71" s="10">
         <v>7000001</v>
@@ -2407,21 +2401,21 @@
         <v>3</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D72" s="10">
         <v>8000001</v>
@@ -2433,21 +2427,21 @@
         <v>3</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D73" s="10">
         <v>9000001</v>
@@ -2459,21 +2453,21 @@
         <v>3</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D74" s="10">
         <v>20000001</v>
@@ -2485,21 +2479,21 @@
         <v>3</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D75" s="10">
         <v>40000001</v>
@@ -2511,21 +2505,21 @@
         <v>3</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D76" s="10">
         <v>60000001</v>
@@ -2537,21 +2531,21 @@
         <v>3</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D77" s="10">
         <v>1000</v>
@@ -2563,21 +2557,21 @@
         <v>3</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D78" s="10">
         <v>100000</v>
@@ -2589,21 +2583,21 @@
         <v>3</v>
       </c>
       <c r="G78" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D79" s="10">
         <v>1000001</v>
@@ -2615,21 +2609,21 @@
         <v>3</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D80" s="10">
         <v>2500001</v>
@@ -2641,21 +2635,21 @@
         <v>3</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D81" s="10">
         <v>3100001</v>
@@ -2667,21 +2661,21 @@
         <v>3</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D82" s="10">
         <v>3700001</v>
@@ -2693,21 +2687,21 @@
         <v>3</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D83" s="10">
         <v>4300001</v>
@@ -2719,21 +2713,21 @@
         <v>3</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D84" s="10">
         <v>5000001</v>
@@ -2745,21 +2739,21 @@
         <v>3</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D85" s="10">
         <v>6000001</v>
@@ -2771,21 +2765,21 @@
         <v>3</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D86" s="10">
         <v>7000001</v>
@@ -2797,21 +2791,21 @@
         <v>3</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D87" s="10">
         <v>8000001</v>
@@ -2823,21 +2817,21 @@
         <v>3</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D88" s="10">
         <v>9000001</v>
@@ -2849,21 +2843,21 @@
         <v>3</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D89" s="10">
         <v>20000001</v>
@@ -2875,21 +2869,21 @@
         <v>3</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D90" s="10">
         <v>40000001</v>
@@ -2901,21 +2895,21 @@
         <v>3</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D91" s="10">
         <v>60000001</v>
@@ -2927,21 +2921,21 @@
         <v>3</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="9">
@@ -2951,21 +2945,21 @@
         <v>3</v>
       </c>
       <c r="G92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D93" s="11">
         <v>1500</v>
@@ -2977,21 +2971,21 @@
         <v>3</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D94" s="11">
         <v>15</v>
@@ -3003,21 +2997,21 @@
         <v>3</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D95" s="11">
         <v>5000</v>
@@ -3029,21 +3023,21 @@
         <v>3</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D96" s="11">
         <v>50001</v>
@@ -3055,21 +3049,21 @@
         <v>3</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D97" s="11">
         <v>100001</v>
@@ -3081,21 +3075,21 @@
         <v>3</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D98" s="11">
         <v>130001</v>
@@ -3107,21 +3101,21 @@
         <v>3</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D99" s="11">
         <v>160001</v>
@@ -3133,21 +3127,21 @@
         <v>3</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D100" s="11">
         <v>190001</v>
@@ -3159,21 +3153,21 @@
         <v>3</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D101" s="11">
         <v>220001</v>
@@ -3185,21 +3179,21 @@
         <v>3</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D102" s="11">
         <v>250001</v>
@@ -3211,21 +3205,21 @@
         <v>3</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D103" s="11">
         <v>285001</v>
@@ -3237,21 +3231,21 @@
         <v>3</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D104" s="11">
         <v>320001</v>
@@ -3263,21 +3257,21 @@
         <v>3</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D105" s="11">
         <v>355001</v>
@@ -3289,21 +3283,21 @@
         <v>3</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D106" s="11">
         <v>390001</v>
@@ -3315,21 +3309,21 @@
         <v>3</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D107" s="11">
         <v>425001</v>
@@ -3341,21 +3335,21 @@
         <v>3</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D108" s="11">
         <v>460001</v>
@@ -3367,21 +3361,21 @@
         <v>3</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D109" s="11">
         <v>1500001</v>
@@ -3393,21 +3387,21 @@
         <v>3</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D110" s="11">
         <v>15</v>
@@ -3419,21 +3413,21 @@
         <v>3</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D111" s="11">
         <v>5000</v>
@@ -3445,21 +3439,21 @@
         <v>3</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D112" s="11">
         <v>50001</v>
@@ -3471,21 +3465,21 @@
         <v>3</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D113" s="11">
         <v>100001</v>
@@ -3497,21 +3491,21 @@
         <v>3</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D114" s="11">
         <v>130001</v>
@@ -3523,21 +3517,21 @@
         <v>3</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D115" s="11">
         <v>160001</v>
@@ -3549,21 +3543,21 @@
         <v>3</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D116" s="11">
         <v>190001</v>
@@ -3575,21 +3569,21 @@
         <v>3</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D117" s="11">
         <v>220001</v>
@@ -3601,21 +3595,21 @@
         <v>3</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D118" s="11">
         <v>250001</v>
@@ -3627,21 +3621,21 @@
         <v>3</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D119" s="11">
         <v>285001</v>
@@ -3653,21 +3647,21 @@
         <v>3</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D120" s="11">
         <v>320001</v>
@@ -3679,21 +3673,21 @@
         <v>3</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D121" s="11">
         <v>355001</v>
@@ -3705,21 +3699,21 @@
         <v>3</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D122" s="11">
         <v>390001</v>
@@ -3731,21 +3725,21 @@
         <v>3</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D123" s="11">
         <v>425001</v>
@@ -3757,21 +3751,21 @@
         <v>3</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D124" s="11">
         <v>460001</v>
@@ -3783,21 +3777,21 @@
         <v>3</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D125" s="11">
         <v>1500001</v>
@@ -3809,21 +3803,21 @@
         <v>3</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D126" s="11">
         <v>15</v>
@@ -3835,21 +3829,21 @@
         <v>3</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D127" s="11">
         <v>5000</v>
@@ -3861,21 +3855,21 @@
         <v>3</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D128" s="11">
         <v>50001</v>
@@ -3887,21 +3881,21 @@
         <v>3</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D129" s="11">
         <v>100001</v>
@@ -3913,21 +3907,21 @@
         <v>3</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D130" s="11">
         <v>130001</v>
@@ -3939,21 +3933,21 @@
         <v>3</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D131" s="11">
         <v>160001</v>
@@ -3965,21 +3959,21 @@
         <v>3</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D132" s="11">
         <v>190001</v>
@@ -3991,21 +3985,21 @@
         <v>3</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D133" s="11">
         <v>220001</v>
@@ -4017,21 +4011,21 @@
         <v>3</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D134" s="11">
         <v>250001</v>
@@ -4043,21 +4037,21 @@
         <v>3</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D135" s="11">
         <v>285001</v>
@@ -4069,21 +4063,21 @@
         <v>3</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D136" s="11">
         <v>320001</v>
@@ -4095,21 +4089,21 @@
         <v>3</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D137" s="11">
         <v>355001</v>
@@ -4121,21 +4115,21 @@
         <v>3</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D138" s="11">
         <v>390001</v>
@@ -4147,21 +4141,21 @@
         <v>3</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D139" s="11">
         <v>425001</v>
@@ -4173,21 +4167,21 @@
         <v>3</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D140" s="11">
         <v>460001</v>
@@ -4199,21 +4193,21 @@
         <v>3</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D141" s="11">
         <v>1500001</v>
@@ -4225,21 +4219,21 @@
         <v>3</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D142" s="11">
         <v>15</v>
@@ -4251,21 +4245,21 @@
         <v>3</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D143" s="11">
         <v>5000</v>
@@ -4277,21 +4271,21 @@
         <v>3</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D144" s="11">
         <v>50001</v>
@@ -4303,21 +4297,21 @@
         <v>3</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D145" s="11">
         <v>100001</v>
@@ -4329,21 +4323,21 @@
         <v>3</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D146" s="11">
         <v>130001</v>
@@ -4355,21 +4349,21 @@
         <v>3</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D147" s="11">
         <v>160001</v>
@@ -4381,21 +4375,21 @@
         <v>3</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D148" s="11">
         <v>190001</v>
@@ -4407,21 +4401,21 @@
         <v>3</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D149" s="11">
         <v>220001</v>
@@ -4433,21 +4427,21 @@
         <v>3</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H149" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D150" s="11">
         <v>250001</v>
@@ -4459,21 +4453,21 @@
         <v>3</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H150" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D151" s="11">
         <v>285001</v>
@@ -4485,21 +4479,21 @@
         <v>3</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H151" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D152" s="11">
         <v>320001</v>
@@ -4511,21 +4505,21 @@
         <v>3</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H152" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D153" s="11">
         <v>355001</v>
@@ -4537,21 +4531,21 @@
         <v>3</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H153" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D154" s="11">
         <v>390001</v>
@@ -4563,21 +4557,21 @@
         <v>3</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H154" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D155" s="11">
         <v>425001</v>
@@ -4589,21 +4583,21 @@
         <v>3</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H155" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D156" s="11">
         <v>460001</v>
@@ -4615,21 +4609,21 @@
         <v>3</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H156" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D157" s="11">
         <v>1500001</v>
@@ -4641,21 +4635,21 @@
         <v>3</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H157" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D158" s="11">
         <v>15</v>
@@ -4667,21 +4661,21 @@
         <v>3</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D159" s="11">
         <v>5000</v>
@@ -4693,21 +4687,21 @@
         <v>3</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D160" s="11">
         <v>50001</v>
@@ -4719,21 +4713,21 @@
         <v>3</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D161" s="11">
         <v>100001</v>
@@ -4745,21 +4739,21 @@
         <v>3</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B162" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D162" s="11">
         <v>130001</v>
@@ -4771,21 +4765,21 @@
         <v>3</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B163" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D163" s="11">
         <v>160001</v>
@@ -4797,21 +4791,21 @@
         <v>3</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D164" s="11">
         <v>190001</v>
@@ -4823,21 +4817,21 @@
         <v>3</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D165" s="11">
         <v>220001</v>
@@ -4849,21 +4843,21 @@
         <v>3</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B166" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D166" s="11">
         <v>250001</v>
@@ -4875,21 +4869,21 @@
         <v>3</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H166" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B167" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D167" s="11">
         <v>285001</v>
@@ -4901,21 +4895,21 @@
         <v>3</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H167" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B168" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D168" s="11">
         <v>320001</v>
@@ -4927,21 +4921,21 @@
         <v>3</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H168" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D169" s="11">
         <v>355001</v>
@@ -4953,21 +4947,21 @@
         <v>3</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H169" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D170" s="11">
         <v>390001</v>
@@ -4979,21 +4973,21 @@
         <v>3</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H170" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D171" s="11">
         <v>425001</v>
@@ -5005,21 +4999,21 @@
         <v>3</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H171" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D172" s="11">
         <v>460001</v>
@@ -5031,21 +5025,21 @@
         <v>3</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H172" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D173" s="11">
         <v>1500001</v>
@@ -5057,45 +5051,45 @@
         <v>3</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H173" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D174" s="10"/>
-      <c r="E174" s="9" t="s">
-        <v>10</v>
+      <c r="E174" s="9">
+        <v>0</v>
       </c>
       <c r="F174" s="15">
         <v>3</v>
       </c>
       <c r="G174" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="H174" s="12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="9">
@@ -5105,21 +5099,21 @@
         <v>3</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H175" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="9">
@@ -5129,21 +5123,21 @@
         <v>3</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H176" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D177" s="11"/>
       <c r="E177" s="9">
@@ -5153,21 +5147,21 @@
         <v>3</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H177" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="9">
@@ -5177,21 +5171,21 @@
         <v>3</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H178" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D179" s="11"/>
       <c r="E179" s="9">
@@ -5201,21 +5195,21 @@
         <v>3</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="9">
@@ -5225,21 +5219,21 @@
         <v>3</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H180" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="9">
@@ -5249,21 +5243,21 @@
         <v>3</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H181" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="9">
@@ -5273,21 +5267,21 @@
         <v>3</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D183" s="11"/>
       <c r="E183" s="9">
@@ -5297,21 +5291,21 @@
         <v>3</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H183" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="9">
@@ -5321,21 +5315,21 @@
         <v>3</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H184" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D185" s="11"/>
       <c r="E185" s="9">
@@ -5345,34 +5339,34 @@
         <v>3</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D186" s="10"/>
-      <c r="E186" s="9" t="s">
-        <v>10</v>
+      <c r="E186" s="9">
+        <v>0</v>
       </c>
       <c r="F186" s="15">
         <v>3</v>
       </c>
       <c r="G186" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="H186" s="12" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
